--- a/python/excel/writetest/testdata.xlsx
+++ b/python/excel/writetest/testdata.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -447,16 +447,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
